--- a/biology/Histoire de la zoologie et de la botanique/Charles_Payraudeau/Charles_Payraudeau.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Charles_Payraudeau/Charles_Payraudeau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benjamin Charles Marie Payraudeau (1798-1865) était un zoologiste français.
 Il suivit les cours de Jean-Baptiste de Lamarck (1744-1829) au Muséum national d'histoire naturelle. Il dressa l'inventaire faunistique de la Corse entre 1824 et 1825. Il découvrit lors de cette expédition, deux nouvelles espèces d'oiseaux décrites dans l'article Description de deux espèces nouvelles d'oiseaux, appartenant aux genres Mouette et Cormoran. de la revue Annales de Sciences Naturelles (Paris, 1826, tome 8, p. 460-465).
